--- a/results/mp/tinybert/corona/confidence/84/topk-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/topk-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,9 +52,6 @@
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -67,88 +64,106 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>love</t>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
     <t>you</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
+    <t>,</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
   <si>
     <t>to</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
 </sst>
 </file>
@@ -506,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,10 +529,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -575,13 +590,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.84</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -596,16 +611,16 @@
         <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>0.96875</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -617,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -625,13 +640,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7402597402597403</v>
+        <v>0.6335616438356164</v>
       </c>
       <c r="C4">
-        <v>114</v>
+        <v>185</v>
       </c>
       <c r="D4">
-        <v>114</v>
+        <v>185</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -643,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9444444444444444</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -667,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -675,13 +690,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3605150214592275</v>
+        <v>0.2209302325581395</v>
       </c>
       <c r="C5">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="D5">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -693,19 +708,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>149</v>
+        <v>402</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.925</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -717,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -725,13 +740,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.313953488372093</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -743,19 +758,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L6">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="M6">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -767,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -775,113 +790,89 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2125</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="C7">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>35</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>325</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="L7">
+        <v>33</v>
+      </c>
+      <c r="M7">
+        <v>33</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <v>0.7926829268292683</v>
+      </c>
+      <c r="L8">
+        <v>65</v>
+      </c>
+      <c r="M8">
+        <v>65</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>17</v>
-      </c>
-      <c r="D7">
-        <v>17</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>63</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L7">
-        <v>24</v>
-      </c>
-      <c r="M7">
-        <v>24</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.1555555555555556</v>
-      </c>
-      <c r="C8">
-        <v>21</v>
-      </c>
-      <c r="D8">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>114</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L8">
-        <v>45</v>
-      </c>
-      <c r="M8">
-        <v>45</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9">
-        <v>0.875</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L9">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -893,21 +884,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10">
-        <v>0.8275862068965517</v>
+        <v>0.7578125</v>
       </c>
       <c r="L10">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="M10">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -919,21 +910,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.8148148148148148</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="L11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -945,21 +936,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.803921568627451</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L12">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M12">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -976,16 +967,16 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.8035714285714286</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -997,21 +988,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.75</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L14">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="M14">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1023,21 +1014,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7241379310344828</v>
+        <v>0.7125</v>
       </c>
       <c r="L15">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1049,47 +1040,47 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.72</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L16">
+        <v>33</v>
+      </c>
+      <c r="M16">
+        <v>33</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>18</v>
-      </c>
-      <c r="M16">
-        <v>18</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>7</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.6923076923076923</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L17">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="M17">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1101,21 +1092,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6712328767123288</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L18">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="M18">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1127,21 +1118,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1153,21 +1144,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6363636363636364</v>
+        <v>0.58</v>
       </c>
       <c r="L20">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1179,21 +1170,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L21">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M21">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1205,21 +1196,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.5757575757575758</v>
+        <v>0.5195822454308094</v>
       </c>
       <c r="L22">
-        <v>19</v>
+        <v>199</v>
       </c>
       <c r="M22">
-        <v>19</v>
+        <v>199</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1231,21 +1222,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5539906103286385</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L23">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="M23">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1257,21 +1248,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>95</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5069444444444444</v>
+        <v>0.4779661016949153</v>
       </c>
       <c r="L24">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="M24">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1283,21 +1274,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>71</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5</v>
+        <v>0.4647058823529412</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="M25">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1309,21 +1300,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>15</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.4961240310077519</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L26">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1335,21 +1326,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.4021739130434783</v>
+        <v>0.3472803347280335</v>
       </c>
       <c r="L27">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="M27">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1361,21 +1352,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>55</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.03728070175438596</v>
+        <v>0.03551609322974473</v>
       </c>
       <c r="L28">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M28">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1387,21 +1378,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>439</v>
+        <v>869</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.03658536585365853</v>
+        <v>0.03355704697986577</v>
       </c>
       <c r="L29">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1413,21 +1404,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>395</v>
+        <v>864</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.03286384976525822</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="L30">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="M30">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1439,59 +1430,215 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>412</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>0.01090074584050488</v>
+        <v>0.01884473576403113</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="M31">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="N31">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="O31">
-        <v>0.14</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>1724</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32">
+        <v>0.01756587202007528</v>
+      </c>
+      <c r="L32">
+        <v>28</v>
+      </c>
+      <c r="M32">
+        <v>28</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K32">
-        <v>0.009916492693110648</v>
-      </c>
-      <c r="L32">
-        <v>19</v>
-      </c>
-      <c r="M32">
-        <v>19</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>1897</v>
+      <c r="K33">
+        <v>0.0157244477723699</v>
+      </c>
+      <c r="L33">
+        <v>42</v>
+      </c>
+      <c r="M33">
+        <v>44</v>
+      </c>
+      <c r="N33">
+        <v>0.95</v>
+      </c>
+      <c r="O33">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K34">
+        <v>0.01132947976878613</v>
+      </c>
+      <c r="L34">
+        <v>49</v>
+      </c>
+      <c r="M34">
+        <v>52</v>
+      </c>
+      <c r="N34">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O34">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35">
+        <v>0.01127004768097096</v>
+      </c>
+      <c r="L35">
+        <v>26</v>
+      </c>
+      <c r="M35">
+        <v>28</v>
+      </c>
+      <c r="N35">
+        <v>0.93</v>
+      </c>
+      <c r="O35">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K36">
+        <v>0.009617311160088158</v>
+      </c>
+      <c r="L36">
+        <v>48</v>
+      </c>
+      <c r="M36">
+        <v>53</v>
+      </c>
+      <c r="N36">
+        <v>0.91</v>
+      </c>
+      <c r="O36">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>4943</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K37">
+        <v>0.009017713365539453</v>
+      </c>
+      <c r="L37">
+        <v>28</v>
+      </c>
+      <c r="M37">
+        <v>30</v>
+      </c>
+      <c r="N37">
+        <v>0.93</v>
+      </c>
+      <c r="O37">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38">
+        <v>0.008137957760124007</v>
+      </c>
+      <c r="L38">
+        <v>42</v>
+      </c>
+      <c r="M38">
+        <v>46</v>
+      </c>
+      <c r="N38">
+        <v>0.91</v>
+      </c>
+      <c r="O38">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>5119</v>
       </c>
     </row>
   </sheetData>
